--- a/data/pca/factorExposure/factorExposure_2013-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-3.587199208529472e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001903349592467514</v>
+      </c>
+      <c r="C2">
+        <v>0.03321254724479995</v>
+      </c>
+      <c r="D2">
+        <v>-0.005008460284507624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001995834973324154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005905472688423115</v>
+      </c>
+      <c r="C4">
+        <v>0.08629255270079524</v>
+      </c>
+      <c r="D4">
+        <v>-0.07763257549226481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009439800963804366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01327523693540153</v>
+      </c>
+      <c r="C6">
+        <v>0.110984979717312</v>
+      </c>
+      <c r="D6">
+        <v>-0.0315836530652925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002032288254420937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004604305926028166</v>
+      </c>
+      <c r="C7">
+        <v>0.05616801040624624</v>
+      </c>
+      <c r="D7">
+        <v>-0.03119413387122082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001664528022997217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005574487218176608</v>
+      </c>
+      <c r="C8">
+        <v>0.03792229236163918</v>
+      </c>
+      <c r="D8">
+        <v>-0.04017859143839418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004070597503151308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004015185976190275</v>
+      </c>
+      <c r="C9">
+        <v>0.07209206840309709</v>
+      </c>
+      <c r="D9">
+        <v>-0.07037534523977611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004426709403844062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005120004057475521</v>
+      </c>
+      <c r="C10">
+        <v>0.06025648991605407</v>
+      </c>
+      <c r="D10">
+        <v>0.2048968632099259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003524496290333304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005223887734846436</v>
+      </c>
+      <c r="C11">
+        <v>0.08126489731713805</v>
+      </c>
+      <c r="D11">
+        <v>-0.06181834560573573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001091722743861876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003841027721021985</v>
+      </c>
+      <c r="C12">
+        <v>0.06464463778213349</v>
+      </c>
+      <c r="D12">
+        <v>-0.04652887035664062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003087715927685147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008509703465554045</v>
+      </c>
+      <c r="C13">
+        <v>0.06765553558512541</v>
+      </c>
+      <c r="D13">
+        <v>-0.06769815327901048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001674100381552953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001403669860527667</v>
+      </c>
+      <c r="C14">
+        <v>0.0470874362736703</v>
+      </c>
+      <c r="D14">
+        <v>-0.009564745131031208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001018154369518807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005844225255821064</v>
+      </c>
+      <c r="C15">
+        <v>0.04266701096550499</v>
+      </c>
+      <c r="D15">
+        <v>-0.03091326307293601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001719813081679164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004806603366305701</v>
+      </c>
+      <c r="C16">
+        <v>0.06674422626108151</v>
+      </c>
+      <c r="D16">
+        <v>-0.04648086249782907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002057050779143801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008764509294648693</v>
+      </c>
+      <c r="C20">
+        <v>0.06821561529868354</v>
+      </c>
+      <c r="D20">
+        <v>-0.04947184240952286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004797058469610422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009840545819315824</v>
+      </c>
+      <c r="C21">
+        <v>0.02380927570115075</v>
+      </c>
+      <c r="D21">
+        <v>-0.03495592024827875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01689781050957784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007025976535143282</v>
+      </c>
+      <c r="C22">
+        <v>0.09556939306405465</v>
+      </c>
+      <c r="D22">
+        <v>-0.1038324305603179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01722139475408354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006843121627894453</v>
+      </c>
+      <c r="C23">
+        <v>0.09642322987891797</v>
+      </c>
+      <c r="D23">
+        <v>-0.1042389007297587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002265871232664093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004802116347511614</v>
+      </c>
+      <c r="C24">
+        <v>0.07497891997463797</v>
+      </c>
+      <c r="D24">
+        <v>-0.05944007406338601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004250835816626732</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002577264574159945</v>
+      </c>
+      <c r="C25">
+        <v>0.07865863493734358</v>
+      </c>
+      <c r="D25">
+        <v>-0.06456524506021975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006302416661417513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003530154045665541</v>
+      </c>
+      <c r="C26">
+        <v>0.04317858307288074</v>
+      </c>
+      <c r="D26">
+        <v>-0.02667837518587009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005448160579151714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001155799677136212</v>
+      </c>
+      <c r="C28">
+        <v>0.1098436897594071</v>
+      </c>
+      <c r="D28">
+        <v>0.3144713167773351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001490263235081647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002978482049287195</v>
+      </c>
+      <c r="C29">
+        <v>0.04999668448834849</v>
+      </c>
+      <c r="D29">
+        <v>-0.005967743609489312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003874702299312484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008482145485771751</v>
+      </c>
+      <c r="C30">
+        <v>0.1425454017046807</v>
+      </c>
+      <c r="D30">
+        <v>-0.0994323226926648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001507973232451757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006019474703984658</v>
+      </c>
+      <c r="C31">
+        <v>0.04618668906634218</v>
+      </c>
+      <c r="D31">
+        <v>-0.03148864523645021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009969458982550361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003968964078489718</v>
+      </c>
+      <c r="C32">
+        <v>0.04111967526446816</v>
+      </c>
+      <c r="D32">
+        <v>-0.0195699371766551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003382204671075015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007772940228980002</v>
+      </c>
+      <c r="C33">
+        <v>0.08626948936503546</v>
+      </c>
+      <c r="D33">
+        <v>-0.07298332257094156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004721025017545438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003645023877839463</v>
+      </c>
+      <c r="C34">
+        <v>0.05808656192334292</v>
+      </c>
+      <c r="D34">
+        <v>-0.04796916622730367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0027981241460546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004676864562419835</v>
+      </c>
+      <c r="C35">
+        <v>0.04019550995104086</v>
+      </c>
+      <c r="D35">
+        <v>-0.01255810826528706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00418326210391517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001403583357338836</v>
+      </c>
+      <c r="C36">
+        <v>0.02549103850974347</v>
+      </c>
+      <c r="D36">
+        <v>-0.02150791464521519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002033645431962299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009386665431177325</v>
+      </c>
+      <c r="C38">
+        <v>0.03472695187306226</v>
+      </c>
+      <c r="D38">
+        <v>-0.02046357891608855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01332849534403053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001199103174178536</v>
+      </c>
+      <c r="C39">
+        <v>0.1180099417189983</v>
+      </c>
+      <c r="D39">
+        <v>-0.0766412259853568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009599993214417768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001770164621003072</v>
+      </c>
+      <c r="C40">
+        <v>0.0879103719078133</v>
+      </c>
+      <c r="D40">
+        <v>-0.01038903868741421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004317757735835582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007104203288688609</v>
+      </c>
+      <c r="C41">
+        <v>0.03777326012242982</v>
+      </c>
+      <c r="D41">
+        <v>-0.03587961203575826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003283449356866848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003422043032825882</v>
+      </c>
+      <c r="C43">
+        <v>0.05109946637232751</v>
+      </c>
+      <c r="D43">
+        <v>-0.0253831670802579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002963457110691644</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003247183607101904</v>
+      </c>
+      <c r="C44">
+        <v>0.1143501078656874</v>
+      </c>
+      <c r="D44">
+        <v>-0.07208721655726764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001884404231419249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002240843727014556</v>
+      </c>
+      <c r="C46">
+        <v>0.03619930519434009</v>
+      </c>
+      <c r="D46">
+        <v>-0.02699885958809504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0008382064718174703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002635442908815533</v>
+      </c>
+      <c r="C47">
+        <v>0.03817810282402299</v>
+      </c>
+      <c r="D47">
+        <v>-0.02399396406833504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003136464577727916</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006299296096081347</v>
+      </c>
+      <c r="C48">
+        <v>0.0296553373862087</v>
+      </c>
+      <c r="D48">
+        <v>-0.03274933115520513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01458144803251413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01429713420829506</v>
+      </c>
+      <c r="C49">
+        <v>0.181100058268577</v>
+      </c>
+      <c r="D49">
+        <v>-0.01181799364507322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001368567099177824</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003421933286500112</v>
+      </c>
+      <c r="C50">
+        <v>0.04455611118467439</v>
+      </c>
+      <c r="D50">
+        <v>-0.03438305076151524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001268968679437542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00425874120203607</v>
+      </c>
+      <c r="C51">
+        <v>0.02541241237874416</v>
+      </c>
+      <c r="D51">
+        <v>-0.02248147562687737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002403026227151864</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01976712872144226</v>
+      </c>
+      <c r="C53">
+        <v>0.1683951389629727</v>
+      </c>
+      <c r="D53">
+        <v>-0.03972908703530325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0007445147585102436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00857440605253839</v>
+      </c>
+      <c r="C54">
+        <v>0.0570697016321076</v>
+      </c>
+      <c r="D54">
+        <v>-0.04151015729184341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004106280632546659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.008937388430700154</v>
+      </c>
+      <c r="C55">
+        <v>0.1087252151001061</v>
+      </c>
+      <c r="D55">
+        <v>-0.04598672549457732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002735742033592386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01928903244752557</v>
+      </c>
+      <c r="C56">
+        <v>0.1756421777220041</v>
+      </c>
+      <c r="D56">
+        <v>-0.03956691615391041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007913419533718689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01915296058620747</v>
+      </c>
+      <c r="C58">
+        <v>0.1087761063995667</v>
+      </c>
+      <c r="D58">
+        <v>-0.05554766287193984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006839295875961047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008688699577320295</v>
+      </c>
+      <c r="C59">
+        <v>0.1592384423881498</v>
+      </c>
+      <c r="D59">
+        <v>0.3015446494728996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004696248286419125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02284127853110186</v>
+      </c>
+      <c r="C60">
+        <v>0.2228150671646285</v>
+      </c>
+      <c r="D60">
+        <v>-0.02191073957233805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01510105693796162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002215059813377085</v>
+      </c>
+      <c r="C61">
+        <v>0.09597409127617242</v>
+      </c>
+      <c r="D61">
+        <v>-0.05951009942455386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1705266415748853</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436563894057513</v>
+      </c>
+      <c r="C62">
+        <v>0.08681551966136444</v>
+      </c>
+      <c r="D62">
+        <v>-0.04563924054154971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001679693744905465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006230808295231183</v>
+      </c>
+      <c r="C63">
+        <v>0.05846995508044116</v>
+      </c>
+      <c r="D63">
+        <v>-0.02718847160982614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005666443956450767</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01466442384820359</v>
+      </c>
+      <c r="C64">
+        <v>0.1053082818413052</v>
+      </c>
+      <c r="D64">
+        <v>-0.06253314729302514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001582959735476289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01695710135102338</v>
+      </c>
+      <c r="C65">
+        <v>0.1191831290805758</v>
+      </c>
+      <c r="D65">
+        <v>-0.01719951288581869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008779913143404743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01209029550878246</v>
+      </c>
+      <c r="C66">
+        <v>0.1599644039360033</v>
+      </c>
+      <c r="D66">
+        <v>-0.1164036530960252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003396245370860504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01539837639985204</v>
+      </c>
+      <c r="C67">
+        <v>0.06503494725443079</v>
+      </c>
+      <c r="D67">
+        <v>-0.02971057621697739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006676318507959631</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003914799887129994</v>
+      </c>
+      <c r="C68">
+        <v>0.0888999064424796</v>
+      </c>
+      <c r="D68">
+        <v>0.253898497911901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002915292351539889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005714187234689767</v>
+      </c>
+      <c r="C69">
+        <v>0.05032827650471981</v>
+      </c>
+      <c r="D69">
+        <v>-0.03950634584342721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.224899355904598e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001777953560385939</v>
+      </c>
+      <c r="C70">
+        <v>0.002249167676300933</v>
+      </c>
+      <c r="D70">
+        <v>-0.001102913781729947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001507054200144455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005701038588915666</v>
+      </c>
+      <c r="C71">
+        <v>0.09958526349199165</v>
+      </c>
+      <c r="D71">
+        <v>0.2939330536029203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005753579600766573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01507423209267049</v>
+      </c>
+      <c r="C72">
+        <v>0.1499553886727374</v>
+      </c>
+      <c r="D72">
+        <v>-0.01993572968226611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01179870308869673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02851552313320117</v>
+      </c>
+      <c r="C73">
+        <v>0.2733245833536688</v>
+      </c>
+      <c r="D73">
+        <v>-0.04741242950229634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004989529653487311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001003013523638474</v>
+      </c>
+      <c r="C74">
+        <v>0.1044731233797138</v>
+      </c>
+      <c r="D74">
+        <v>-0.04425297625233408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00398897377189908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01043035562333722</v>
+      </c>
+      <c r="C75">
+        <v>0.1318186916766579</v>
+      </c>
+      <c r="D75">
+        <v>-0.02473291569300287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009118544553324238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02081430990384147</v>
+      </c>
+      <c r="C76">
+        <v>0.1504017293015261</v>
+      </c>
+      <c r="D76">
+        <v>-0.06614762916189525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-7.663647644095727e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02394923364622032</v>
+      </c>
+      <c r="C77">
+        <v>0.1360779662578907</v>
+      </c>
+      <c r="D77">
+        <v>-0.04828577856838796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001425853643793633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01405715091957223</v>
+      </c>
+      <c r="C78">
+        <v>0.09428305401389167</v>
+      </c>
+      <c r="D78">
+        <v>-0.07004346359540026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02417696393970786</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03659011972946417</v>
+      </c>
+      <c r="C79">
+        <v>0.1578653171509677</v>
+      </c>
+      <c r="D79">
+        <v>-0.03141180868658753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004821201145927571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01028698618974203</v>
+      </c>
+      <c r="C80">
+        <v>0.04124099088896375</v>
+      </c>
+      <c r="D80">
+        <v>-0.03193909757244794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0006171878569608604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01441323394885695</v>
+      </c>
+      <c r="C81">
+        <v>0.1279948071494178</v>
+      </c>
+      <c r="D81">
+        <v>-0.04879804358266867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005348681091304298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01903005101986469</v>
+      </c>
+      <c r="C82">
+        <v>0.1441070402147308</v>
+      </c>
+      <c r="D82">
+        <v>-0.0415789623081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008788180258043983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009878369469666966</v>
+      </c>
+      <c r="C83">
+        <v>0.05687151293079494</v>
+      </c>
+      <c r="D83">
+        <v>-0.05124669512156996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01250946476053568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145495811426679</v>
+      </c>
+      <c r="C84">
+        <v>0.036503286238506</v>
+      </c>
+      <c r="D84">
+        <v>0.009070647508791246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01495656813503714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02764891700515767</v>
+      </c>
+      <c r="C85">
+        <v>0.1320276811167621</v>
+      </c>
+      <c r="D85">
+        <v>-0.04425353111158772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001216941167396556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005349733390691717</v>
+      </c>
+      <c r="C86">
+        <v>0.0500290982346612</v>
+      </c>
+      <c r="D86">
+        <v>-0.01977065514174409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005960113337339979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009847645087051181</v>
+      </c>
+      <c r="C87">
+        <v>0.1316647169620073</v>
+      </c>
+      <c r="D87">
+        <v>-0.0681861202422219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01312690029589382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003125138766520134</v>
+      </c>
+      <c r="C88">
+        <v>0.06754737688580469</v>
+      </c>
+      <c r="D88">
+        <v>-0.01458379312632163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01532925145880342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001861533181244725</v>
+      </c>
+      <c r="C89">
+        <v>0.1483677165003426</v>
+      </c>
+      <c r="D89">
+        <v>0.3486220774305854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002885555053810761</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006516383747511729</v>
+      </c>
+      <c r="C90">
+        <v>0.1237549168702658</v>
+      </c>
+      <c r="D90">
+        <v>0.321371814736376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006457331881947396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009941965622356445</v>
+      </c>
+      <c r="C91">
+        <v>0.1036600588099822</v>
+      </c>
+      <c r="D91">
+        <v>-0.02101555806861574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008718059904593515</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001175484010197815</v>
+      </c>
+      <c r="C92">
+        <v>0.1374781719111145</v>
+      </c>
+      <c r="D92">
+        <v>0.3388666035724199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008529859360195849</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004531663256103885</v>
+      </c>
+      <c r="C93">
+        <v>0.1073002014682728</v>
+      </c>
+      <c r="D93">
+        <v>0.3157507284862703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003157269424959051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0219119541542113</v>
+      </c>
+      <c r="C94">
+        <v>0.1549029067117521</v>
+      </c>
+      <c r="D94">
+        <v>-0.03717122649488565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004901167024748784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01572606810763838</v>
+      </c>
+      <c r="C95">
+        <v>0.1273190019578714</v>
+      </c>
+      <c r="D95">
+        <v>-0.06049922982793535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001377587694211802</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03358220124517933</v>
+      </c>
+      <c r="C97">
+        <v>0.1882049456504153</v>
+      </c>
+      <c r="D97">
+        <v>-0.01097517759631485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004169317173512583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03562152307209814</v>
+      </c>
+      <c r="C98">
+        <v>0.2502260927879638</v>
+      </c>
+      <c r="D98">
+        <v>-0.04740353135070645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833637432143927</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829599104078892</v>
+      </c>
+      <c r="C99">
+        <v>-0.1096541073310749</v>
+      </c>
+      <c r="D99">
+        <v>0.02729785675202297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001446621782689733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.0030227610836274</v>
+      </c>
+      <c r="C101">
+        <v>0.05002737354987075</v>
+      </c>
+      <c r="D101">
+        <v>-0.00639363310904831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
